--- a/tests_cases/PE10 - TC - 05.xlsx
+++ b/tests_cases/PE10 - TC - 05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Q-CHECK\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13092A13-C10A-45B2-922F-CEA6756B334B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC72CE7-4460-4283-BB0C-F4AE9662D9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>TC-05.00</t>
   </si>
   <si>
-    <t>Probando funcionalidad del carrito</t>
-  </si>
-  <si>
     <t>Pre-requisites</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>se redirige al carrito</t>
+  </si>
+  <si>
+    <t>Probando redireccion al Home</t>
   </si>
 </sst>
 </file>
@@ -889,228 +889,228 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,14 +1517,14 @@
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="91"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -1536,493 +1536,493 @@
       <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="94">
         <v>0.1</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="27">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="83"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>1</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>2</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>2</v>
+      </c>
+      <c r="B19" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="31" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
+        <v>3</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>4</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
+        <v>5</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
+        <v>6</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="56">
         <v>7</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="33">
-        <v>2</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="74">
-        <v>1</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="74">
-        <v>2</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
-        <v>2</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="74">
-        <v>3</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="74">
-        <v>4</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="74">
-        <v>5</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="92">
-        <v>6</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
-        <v>7</v>
-      </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="21"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="87" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="21"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="21"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="21"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="21"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
+      <c r="D39" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="91"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
@@ -2034,452 +2034,452 @@
       <c r="C40" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="94">
         <v>0.1</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="21"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="27">
+        <v>1</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="27">
+        <v>2</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="82"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="83"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="80"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="87"/>
+      <c r="D52" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="89"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="75"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="79"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="51">
+        <v>1</v>
+      </c>
+      <c r="B55" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="73"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="51">
+        <v>2</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="66"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="51">
+        <v>2</v>
+      </c>
+      <c r="B57" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="31" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="66"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="51">
+        <v>3</v>
+      </c>
+      <c r="B58" s="72"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="51">
+        <v>4</v>
+      </c>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="51">
+        <v>5</v>
+      </c>
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="55">
+        <v>6</v>
+      </c>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="56">
         <v>7</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="33">
-        <v>1</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="33">
-        <v>2</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-    </row>
-    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="21"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="21"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="21"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="21"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="74">
-        <v>1</v>
-      </c>
-      <c r="B55" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="76"/>
-      <c r="D55" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="77"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55" s="21"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="74">
-        <v>2</v>
-      </c>
-      <c r="B56" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="76"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H56" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56" s="21"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
-        <v>2</v>
-      </c>
-      <c r="B57" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="76"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="21"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="74">
-        <v>3</v>
-      </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="21"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="74">
-        <v>4</v>
-      </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="21"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="74">
-        <v>5</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="21"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="92">
-        <v>6</v>
-      </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="21"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="93">
-        <v>7</v>
-      </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="21"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="21"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="87" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="87"/>
-      <c r="I64" s="21"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="21"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="21"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="21"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="21"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
@@ -2490,6 +2490,92 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="B67:C67"/>
@@ -2498,92 +2584,6 @@
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2711,21 +2711,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005ACBF82FF32280448C88565210D23A47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97d18655ea211e7533acd5a2318ca8a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c71177d-84a1-4dd9-b712-f5a48054c455" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4416c93f0313e0694190cc26fdb99745" ns2:_="">
     <xsd:import namespace="9c71177d-84a1-4dd9-b712-f5a48054c455"/>
@@ -2857,24 +2842,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9EE348-9CCE-471E-BE4A-E92394DC64F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69FDEB6B-1403-4F25-B1A4-5EE5DE15C544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2890,4 +2873,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9EE348-9CCE-471E-BE4A-E92394DC64F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests_cases/PE10 - TC - 05.xlsx
+++ b/tests_cases/PE10 - TC - 05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Q-CHECK\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC72CE7-4460-4283-BB0C-F4AE9662D9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85145C16-5E3C-4D99-A802-C041D2D3D4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -1002,115 +1002,115 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,10 +1517,10 @@
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="91"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1536,10 +1536,10 @@
       <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="93"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -1553,10 +1553,10 @@
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="63">
         <v>0.1</v>
       </c>
-      <c r="E3" s="95"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="18"/>
@@ -1683,41 +1683,41 @@
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="39"/>
       <c r="E12" s="40"/>
       <c r="F12" s="33"/>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="83"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="41"/>
       <c r="E13" s="42"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="87"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="43" t="s">
         <v>11</v>
       </c>
@@ -1725,10 +1725,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1738,24 +1738,24 @@
       <c r="D15" s="48"/>
       <c r="E15" s="49"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="75"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="79"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="36"/>
       <c r="G16" s="50" t="s">
         <v>17</v>
@@ -1769,14 +1769,14 @@
       <c r="A17" s="51">
         <v>1</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="36"/>
       <c r="G17" s="52" t="s">
         <v>59</v>
@@ -1790,14 +1790,14 @@
       <c r="A18" s="51">
         <v>2</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="36"/>
       <c r="G18" s="52" t="s">
         <v>59</v>
@@ -1811,14 +1811,14 @@
       <c r="A19" s="51">
         <v>2</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="36"/>
       <c r="G19" s="52" t="s">
         <v>59</v>
@@ -1832,10 +1832,10 @@
       <c r="A20" s="51">
         <v>3</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="36"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -1845,10 +1845,10 @@
       <c r="A21" s="51">
         <v>4</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="36"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -1858,10 +1858,10 @@
       <c r="A22" s="51">
         <v>5</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="36"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
@@ -1871,10 +1871,10 @@
       <c r="A23" s="55">
         <v>6</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="18"/>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
@@ -1884,10 +1884,10 @@
       <c r="A24" s="56">
         <v>7</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="18"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="18"/>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -1906,67 +1906,67 @@
     </row>
     <row r="26" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="62"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="54"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="54"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -2015,10 +2015,10 @@
       <c r="C39" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="91"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -2034,10 +2034,10 @@
       <c r="C40" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="93"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -2051,10 +2051,10 @@
       <c r="C41" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="94">
+      <c r="D41" s="63">
         <v>0.1</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="18"/>
@@ -2181,41 +2181,41 @@
       <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="82"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="39"/>
       <c r="E50" s="40"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="83" t="s">
+      <c r="G50" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="83"/>
+      <c r="H50" s="72"/>
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="41"/>
       <c r="E51" s="42"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="85"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="87"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="43" t="s">
         <v>11</v>
       </c>
@@ -2223,10 +2223,10 @@
         <v>12</v>
       </c>
       <c r="F52" s="36"/>
-      <c r="G52" s="88" t="s">
+      <c r="G52" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="89"/>
+      <c r="H52" s="78"/>
       <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2236,24 +2236,24 @@
       <c r="D53" s="48"/>
       <c r="E53" s="49"/>
       <c r="F53" s="36"/>
-      <c r="G53" s="74" t="s">
+      <c r="G53" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="75"/>
+      <c r="H53" s="66"/>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="78" t="s">
+      <c r="C54" s="80"/>
+      <c r="D54" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="79"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="36"/>
       <c r="G54" s="50" t="s">
         <v>17</v>
@@ -2267,14 +2267,14 @@
       <c r="A55" s="51">
         <v>1</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="73" t="s">
+      <c r="C55" s="84"/>
+      <c r="D55" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="73"/>
+      <c r="E55" s="85"/>
       <c r="F55" s="36"/>
       <c r="G55" s="52" t="s">
         <v>59</v>
@@ -2288,14 +2288,14 @@
       <c r="A56" s="51">
         <v>2</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="65" t="s">
+      <c r="C56" s="84"/>
+      <c r="D56" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="66"/>
+      <c r="E56" s="84"/>
       <c r="F56" s="36"/>
       <c r="G56" s="52" t="s">
         <v>59</v>
@@ -2309,14 +2309,14 @@
       <c r="A57" s="51">
         <v>2</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="65" t="s">
+      <c r="C57" s="84"/>
+      <c r="D57" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="66"/>
+      <c r="E57" s="84"/>
       <c r="F57" s="36"/>
       <c r="G57" s="52" t="s">
         <v>59</v>
@@ -2330,10 +2330,10 @@
       <c r="A58" s="51">
         <v>3</v>
       </c>
-      <c r="B58" s="72"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
       <c r="F58" s="36"/>
       <c r="G58" s="52"/>
       <c r="H58" s="52"/>
@@ -2343,10 +2343,10 @@
       <c r="A59" s="51">
         <v>4</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="68"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="71"/>
       <c r="F59" s="36"/>
       <c r="G59" s="52"/>
       <c r="H59" s="52"/>
@@ -2356,10 +2356,10 @@
       <c r="A60" s="51">
         <v>5</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="88"/>
       <c r="F60" s="36"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
@@ -2369,10 +2369,10 @@
       <c r="A61" s="55">
         <v>6</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
       <c r="F61" s="18"/>
       <c r="G61" s="52"/>
       <c r="H61" s="52"/>
@@ -2382,10 +2382,10 @@
       <c r="A62" s="56">
         <v>7</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="18"/>
       <c r="G62" s="52"/>
       <c r="H62" s="52"/>
@@ -2393,10 +2393,10 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
       <c r="F63" s="18"/>
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
@@ -2404,67 +2404,67 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="62" t="s">
+      <c r="G64" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="62"/>
+      <c r="H64" s="93"/>
       <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
+      <c r="G65" s="94"/>
+      <c r="H65" s="94"/>
       <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
       <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
       <c r="F67" s="54"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
       <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="37"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
       <c r="F68" s="54"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
       <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="37"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -2490,6 +2490,90 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -2500,90 +2584,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2711,6 +2711,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005ACBF82FF32280448C88565210D23A47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97d18655ea211e7533acd5a2318ca8a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c71177d-84a1-4dd9-b712-f5a48054c455" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4416c93f0313e0694190cc26fdb99745" ns2:_="">
     <xsd:import namespace="9c71177d-84a1-4dd9-b712-f5a48054c455"/>
@@ -2842,22 +2857,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9EE348-9CCE-471E-BE4A-E92394DC64F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69FDEB6B-1403-4F25-B1A4-5EE5DE15C544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2873,21 +2890,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9EE348-9CCE-471E-BE4A-E92394DC64F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>